--- a/data/trans_camb/P16B03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,19</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,59; 18,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,81; 16,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 10,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 11,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,27; 10,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 10,89</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,83; 22,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,56; 20,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 12,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,27; 13,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 11,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,94; 12,86</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,26; 30,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,73; 30,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,6; 13,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,08; 6,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,29; 13,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,13; 9,21</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,88%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,8; 57,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,01; 53,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,04; 16,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,42; 8,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; 18,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,65; 11,82</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,88</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,55</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,92; 48,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,55; 44,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,57; 48,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,91; 28,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,43; 43,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,94; 28,69</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,43%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,67; 114,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,82; 102,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,74; 99,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,97; 49,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,13; 84,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,6; 51,22</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; 21,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,03; 17,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 10,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,52; 5,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 11,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,21; 6,25</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,12%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,62; 30,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,06; 25,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 12,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,37; 6,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 14,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,32; 7,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 18,39</t>
+          <t>-20,16; 18,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 16,83</t>
+          <t>-22,48; 18,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 10,65</t>
+          <t>-4,53; 10,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 11,59</t>
+          <t>-4,75; 11,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 10,08</t>
+          <t>-3,35; 9,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 10,89</t>
+          <t>-4,37; 11,36</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 22,9</t>
+          <t>-21,32; 22,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 20,98</t>
+          <t>-23,27; 22,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 12,44</t>
+          <t>-4,72; 12,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 13,31</t>
+          <t>-4,9; 13,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 11,63</t>
+          <t>-3,37; 11,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 12,86</t>
+          <t>-4,69; 12,97</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 30,71</t>
+          <t>-24,89; 30,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 30,17</t>
+          <t>-23,68; 31,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 13,25</t>
+          <t>-8,09; 12,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 6,78</t>
+          <t>-15,25; 7,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 13,66</t>
+          <t>-7,43; 13,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 9,21</t>
+          <t>-13,21; 8,82</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 57,8</t>
+          <t>-29,36; 57,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 53,89</t>
+          <t>-28,5; 59,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 16,49</t>
+          <t>-8,53; 14,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 8,0</t>
+          <t>-16,42; 8,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 18,01</t>
+          <t>-8,44; 17,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 11,82</t>
+          <t>-14,89; 11,38</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-51,92; 48,61</t>
+          <t>-49,54; 50,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 44,98</t>
+          <t>-51,15; 45,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 48,64</t>
+          <t>1,92; 47,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 28,64</t>
+          <t>-23,22; 27,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 43,72</t>
+          <t>3,22; 42,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 28,69</t>
+          <t>-16,88; 28,61</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-72,67; 114,01</t>
+          <t>-72,1; 120,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,82; 102,01</t>
+          <t>-71,82; 107,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,74; 99,96</t>
+          <t>1,92; 91,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 49,7</t>
+          <t>-25,95; 46,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,13; 84,29</t>
+          <t>4,02; 79,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 51,22</t>
+          <t>-20,89; 49,64</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 21,01</t>
+          <t>-16,15; 19,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 17,77</t>
+          <t>-17,73; 16,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 10,24</t>
+          <t>-1,46; 10,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 5,4</t>
+          <t>-7,83; 5,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 11,62</t>
+          <t>0,49; 12,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 6,25</t>
+          <t>-7,08; 6,34</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 30,47</t>
+          <t>-19,19; 27,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 25,44</t>
+          <t>-20,94; 23,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 12,08</t>
+          <t>-1,43; 12,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 6,31</t>
+          <t>-8,48; 6,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,44; 14,34</t>
+          <t>0,55; 15,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 7,51</t>
+          <t>-7,99; 7,68</t>
         </is>
       </c>
     </row>
